--- a/public/uploads/suppliers_data.xlsx
+++ b/public/uploads/suppliers_data.xlsx
@@ -8876,10 +8876,10 @@
   <sheetPr/>
   <dimension ref="A1:AB108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:AB1"/>
+      <selection pane="bottomLeft" activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
